--- a/data/img_class_ground_truth/rawdata.xlsx
+++ b/data/img_class_ground_truth/rawdata.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/Documents/Georgian College/AIDI/GitHub/Smart_Beach_at_Bruce_County/data/img_class_ground_truth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD4EB0F-1148-B948-887F-DA281EC186B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D5B38E53-0395-E84F-BF90-641F5531533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="34920" windowHeight="21900"/>
   </bookViews>
   <sheets>
-    <sheet name="rawdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="rawdata" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="38">
   <si>
     <t>file</t>
   </si>
@@ -103,9 +107,6 @@
     <t>2022-09-14_16-50-16.jpg</t>
   </si>
   <si>
-    <t>2022-09-17_16-10-16.jpg</t>
-  </si>
-  <si>
     <t>2022-09-19_17-33-01.jpg</t>
   </si>
   <si>
@@ -115,64 +116,28 @@
     <t>2022-09-22_13-23-02.jpg</t>
   </si>
   <si>
-    <t>Picture1.png</t>
-  </si>
-  <si>
-    <t>Picture10.png</t>
-  </si>
-  <si>
     <t>Picture11.png</t>
-  </si>
-  <si>
-    <t>Picture12.png</t>
-  </si>
-  <si>
-    <t>Picture13.png</t>
-  </si>
-  <si>
-    <t>Picture14.png</t>
-  </si>
-  <si>
-    <t>Picture15.png</t>
   </si>
   <si>
     <t>Picture16.png</t>
   </si>
   <si>
-    <t>Picture17.png</t>
-  </si>
-  <si>
     <t>Picture18.png</t>
-  </si>
-  <si>
-    <t>Picture19.png</t>
-  </si>
-  <si>
-    <t>Picture2.png</t>
-  </si>
-  <si>
-    <t>Picture20.png</t>
-  </si>
-  <si>
-    <t>Picture3.png</t>
-  </si>
-  <si>
-    <t>Picture4.png</t>
-  </si>
-  <si>
-    <t>Picture5.png</t>
-  </si>
-  <si>
-    <t>Picture6.png</t>
-  </si>
-  <si>
-    <t>Picture7.png</t>
   </si>
   <si>
     <t>Picture8.png</t>
   </si>
   <si>
-    <t>Picture9.png</t>
+    <t>Sum of DertResNet50</t>
+  </si>
+  <si>
+    <t>Sum of YOLOv8</t>
+  </si>
+  <si>
+    <t>Sum of insightface</t>
+  </si>
+  <si>
+    <t>Values</t>
   </si>
 </sst>
 </file>
@@ -656,8 +621,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -714,6 +681,1780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="francis chen" refreshedDate="45003.712616435187" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="132">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F133" sheet="rawdata"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="file" numFmtId="0">
+      <sharedItems count="22">
+        <s v="2022-08-31_09-50-16.jpg"/>
+        <s v="2022-09-02_13-50-14.jpg"/>
+        <s v="2022-09-02_15-00-16.jpg"/>
+        <s v="2022-09-02_15-50-16.jpg"/>
+        <s v="2022-09-02_16-30-16.jpg"/>
+        <s v="2022-09-04_14-43-18.jpg"/>
+        <s v="2022-09-04_15-31-23.jpg"/>
+        <s v="2022-09-05_17-50-16.jpg"/>
+        <s v="2022-09-06_15-40-16.jpg"/>
+        <s v="2022-09-07_15-26-00.jpg"/>
+        <s v="2022-09-08_08-50-16.jpg"/>
+        <s v="2022-09-11_12-40-15.jpg"/>
+        <s v="2022-09-13_13-35-37.jpg"/>
+        <s v="2022-09-13_18-24-10.jpg"/>
+        <s v="2022-09-14_16-50-16.jpg"/>
+        <s v="2022-09-19_17-33-01.jpg"/>
+        <s v="2022-09-19_18-03-10.jpg"/>
+        <s v="2022-09-22_13-23-02.jpg"/>
+        <s v="Picture11.png"/>
+        <s v="Picture16.png"/>
+        <s v="Picture18.png"/>
+        <s v="Picture8.png"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="metric" numFmtId="0">
+      <sharedItems count="6">
+        <s v="accuracy"/>
+        <s v="precision"/>
+        <s v="recall"/>
+        <s v="f1score"/>
+        <s v="support"/>
+        <s v="mAP"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DertResNet50" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4999999999999998E-2" maxValue="94" count="86">
+        <n v="0.66700000000000004"/>
+        <n v="1"/>
+        <n v="0.8"/>
+        <n v="2"/>
+        <n v="0.9"/>
+        <n v="0.129"/>
+        <n v="0.59099999999999997"/>
+        <n v="0.14099999999999999"/>
+        <n v="0.22800000000000001"/>
+        <n v="92"/>
+        <n v="4.4999999999999998E-2"/>
+        <n v="0.41699999999999998"/>
+        <n v="0.45500000000000002"/>
+        <n v="0.83299999999999996"/>
+        <n v="0.58799999999999997"/>
+        <n v="6"/>
+        <n v="0.30099999999999999"/>
+        <n v="0.16"/>
+        <n v="0.72699999999999998"/>
+        <n v="0.17"/>
+        <n v="0.27600000000000002"/>
+        <n v="94"/>
+        <n v="7.0999999999999994E-2"/>
+        <n v="0.3"/>
+        <n v="0.375"/>
+        <n v="0.6"/>
+        <n v="0.46200000000000002"/>
+        <n v="5"/>
+        <n v="0.26300000000000001"/>
+        <n v="0.63200000000000001"/>
+        <n v="10"/>
+        <n v="0.247"/>
+        <n v="0.26700000000000002"/>
+        <n v="0.29599999999999999"/>
+        <n v="0.42099999999999999"/>
+        <n v="54"/>
+        <n v="0.11899999999999999"/>
+        <n v="0.34899999999999998"/>
+        <n v="0.71399999999999997"/>
+        <n v="0.40500000000000003"/>
+        <n v="0.51700000000000002"/>
+        <n v="37"/>
+        <n v="0.23599999999999999"/>
+        <n v="0.30299999999999999"/>
+        <n v="0.52600000000000002"/>
+        <n v="0.46500000000000002"/>
+        <n v="19"/>
+        <n v="0.13300000000000001"/>
+        <n v="0.54500000000000004"/>
+        <n v="22"/>
+        <n v="0.13200000000000001"/>
+        <n v="0.95"/>
+        <n v="0.184"/>
+        <n v="0.29199999999999998"/>
+        <n v="0.33300000000000002"/>
+        <n v="0.311"/>
+        <n v="21"/>
+        <n v="4.9000000000000002E-2"/>
+        <n v="0.5"/>
+        <n v="0.309"/>
+        <n v="0.36799999999999999"/>
+        <n v="0.41199999999999998"/>
+        <n v="0.77800000000000002"/>
+        <n v="0.53800000000000003"/>
+        <n v="9"/>
+        <n v="0.26100000000000001"/>
+        <n v="0.38500000000000001"/>
+        <n v="11"/>
+        <n v="0.253"/>
+        <n v="0.75"/>
+        <n v="12"/>
+        <n v="0.17399999999999999"/>
+        <n v="0.39300000000000002"/>
+        <n v="0.47799999999999998"/>
+        <n v="0.68799999999999994"/>
+        <n v="0.56399999999999995"/>
+        <n v="16"/>
+        <n v="0.32900000000000001"/>
+        <n v="0.70599999999999996"/>
+        <n v="0.59199999999999997"/>
+        <n v="0.40699999999999997"/>
+        <n v="0.61099999999999999"/>
+        <n v="0.55000000000000004"/>
+        <n v="0.57899999999999996"/>
+        <n v="20"/>
+        <n v="0.16600000000000001"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="YOLOv8" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.9000000000000001E-2" maxValue="94" count="67">
+        <n v="0.66700000000000004"/>
+        <n v="1"/>
+        <n v="0.8"/>
+        <n v="2"/>
+        <n v="0.92500000000000004"/>
+        <n v="0.14099999999999999"/>
+        <n v="0.248"/>
+        <n v="92"/>
+        <n v="8.3000000000000004E-2"/>
+        <n v="0.83299999999999996"/>
+        <n v="0.90900000000000003"/>
+        <n v="6"/>
+        <n v="0.59"/>
+        <n v="0.16"/>
+        <n v="0.27500000000000002"/>
+        <n v="94"/>
+        <n v="7.9000000000000001E-2"/>
+        <n v="5"/>
+        <n v="0.61699999999999999"/>
+        <n v="0.6"/>
+        <n v="0.75"/>
+        <n v="10"/>
+        <n v="0.34699999999999998"/>
+        <n v="0.26800000000000002"/>
+        <n v="0.88200000000000001"/>
+        <n v="0.27800000000000002"/>
+        <n v="0.42299999999999999"/>
+        <n v="54"/>
+        <n v="0.13300000000000001"/>
+        <n v="0.45900000000000002"/>
+        <n v="0.63"/>
+        <n v="37"/>
+        <n v="0.309"/>
+        <n v="0.38100000000000001"/>
+        <n v="0.42099999999999999"/>
+        <n v="0.55200000000000005"/>
+        <n v="19"/>
+        <n v="0.21"/>
+        <n v="0.27300000000000002"/>
+        <n v="0.42899999999999999"/>
+        <n v="22"/>
+        <n v="0.19900000000000001"/>
+        <n v="21"/>
+        <n v="0.17299999999999999"/>
+        <n v="0.55300000000000005"/>
+        <n v="0.44400000000000001"/>
+        <n v="0.61499999999999999"/>
+        <n v="9"/>
+        <n v="0.314"/>
+        <n v="0.5"/>
+        <n v="0.85699999999999998"/>
+        <n v="0.54500000000000004"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="0.42699999999999999"/>
+        <n v="0.41199999999999998"/>
+        <n v="0.875"/>
+        <n v="0.438"/>
+        <n v="0.58299999999999996"/>
+        <n v="16"/>
+        <n v="0.35399999999999998"/>
+        <n v="0.80200000000000005"/>
+        <n v="0.4"/>
+        <n v="0.57099999999999995"/>
+        <n v="20"/>
+        <n v="0.20799999999999999"/>
+        <n v="0.9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="insightface" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="94" count="67">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="0.7"/>
+        <n v="8.5000000000000006E-2"/>
+        <n v="0.8"/>
+        <n v="8.6999999999999994E-2"/>
+        <n v="0.157"/>
+        <n v="92"/>
+        <n v="3.9E-2"/>
+        <n v="0.16700000000000001"/>
+        <n v="0.28599999999999998"/>
+        <n v="6"/>
+        <n v="6.7000000000000004E-2"/>
+        <n v="7.3999999999999996E-2"/>
+        <n v="0.13900000000000001"/>
+        <n v="94"/>
+        <n v="4.2000000000000003E-2"/>
+        <n v="0"/>
+        <n v="5"/>
+        <n v="0.3"/>
+        <n v="0.46200000000000002"/>
+        <n v="10"/>
+        <n v="0.23699999999999999"/>
+        <n v="0.107"/>
+        <n v="0.75"/>
+        <n v="0.111"/>
+        <n v="0.19400000000000001"/>
+        <n v="54"/>
+        <n v="5.8999999999999997E-2"/>
+        <n v="0.216"/>
+        <n v="0.35599999999999998"/>
+        <n v="37"/>
+        <n v="0.14299999999999999"/>
+        <n v="0.158"/>
+        <n v="0.27300000000000002"/>
+        <n v="19"/>
+        <n v="8.2000000000000003E-2"/>
+        <n v="0.66700000000000004"/>
+        <n v="9.0999999999999998E-2"/>
+        <n v="0.16"/>
+        <n v="22"/>
+        <n v="5.3999999999999999E-2"/>
+        <n v="9.5000000000000001E-2"/>
+        <n v="0.17399999999999999"/>
+        <n v="21"/>
+        <n v="0.222"/>
+        <n v="0.36399999999999999"/>
+        <n v="9"/>
+        <n v="0.11600000000000001"/>
+        <n v="0.45500000000000002"/>
+        <n v="0.625"/>
+        <n v="11"/>
+        <n v="8.3000000000000004E-2"/>
+        <n v="0.154"/>
+        <n v="12"/>
+        <n v="8.9999999999999993E-3"/>
+        <n v="0.29399999999999998"/>
+        <n v="0.83299999999999996"/>
+        <n v="0.312"/>
+        <n v="16"/>
+        <n v="0.21099999999999999"/>
+        <n v="0.44900000000000001"/>
+        <n v="0.15"/>
+        <n v="0.26100000000000001"/>
+        <n v="20"/>
+        <n v="9.7000000000000003E-2"/>
+        <n v="0.6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="best_model_name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="132">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="insightface"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="insightface"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="insightface"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="20"/>
+    <x v="14"/>
+    <x v="14"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="16"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="27"/>
+    <x v="17"/>
+    <x v="18"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="28"/>
+    <x v="18"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="19"/>
+    <x v="19"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="19"/>
+    <x v="19"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="29"/>
+    <x v="20"/>
+    <x v="20"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="21"/>
+    <x v="21"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="22"/>
+    <x v="22"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="23"/>
+    <x v="23"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="24"/>
+    <x v="24"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="33"/>
+    <x v="25"/>
+    <x v="25"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="34"/>
+    <x v="26"/>
+    <x v="26"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="35"/>
+    <x v="27"/>
+    <x v="27"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="36"/>
+    <x v="28"/>
+    <x v="28"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="37"/>
+    <x v="29"/>
+    <x v="29"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="38"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="39"/>
+    <x v="29"/>
+    <x v="29"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="40"/>
+    <x v="30"/>
+    <x v="30"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="41"/>
+    <x v="31"/>
+    <x v="31"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="42"/>
+    <x v="32"/>
+    <x v="32"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="43"/>
+    <x v="33"/>
+    <x v="33"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="insightface"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="44"/>
+    <x v="34"/>
+    <x v="33"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="45"/>
+    <x v="35"/>
+    <x v="34"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="46"/>
+    <x v="36"/>
+    <x v="35"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="47"/>
+    <x v="37"/>
+    <x v="36"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="38"/>
+    <x v="5"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="48"/>
+    <x v="1"/>
+    <x v="37"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="48"/>
+    <x v="38"/>
+    <x v="38"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="48"/>
+    <x v="39"/>
+    <x v="39"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="49"/>
+    <x v="40"/>
+    <x v="40"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="50"/>
+    <x v="41"/>
+    <x v="41"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="51"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="33"/>
+    <x v="42"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="54"/>
+    <x v="33"/>
+    <x v="42"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="55"/>
+    <x v="35"/>
+    <x v="43"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="56"/>
+    <x v="42"/>
+    <x v="44"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="57"/>
+    <x v="43"/>
+    <x v="28"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="58"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="59"/>
+    <x v="44"/>
+    <x v="17"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="60"/>
+    <x v="45"/>
+    <x v="45"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="61"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="62"/>
+    <x v="45"/>
+    <x v="45"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="63"/>
+    <x v="46"/>
+    <x v="46"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="64"/>
+    <x v="47"/>
+    <x v="47"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="65"/>
+    <x v="48"/>
+    <x v="48"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="49"/>
+    <x v="49"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="66"/>
+    <x v="50"/>
+    <x v="0"/>
+    <s v="insightface"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="51"/>
+    <x v="49"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="50"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="67"/>
+    <x v="52"/>
+    <x v="51"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="68"/>
+    <x v="34"/>
+    <x v="26"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="58"/>
+    <x v="20"/>
+    <x v="52"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="69"/>
+    <x v="20"/>
+    <x v="52"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="53"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="70"/>
+    <x v="53"/>
+    <x v="54"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="71"/>
+    <x v="54"/>
+    <x v="55"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="72"/>
+    <x v="55"/>
+    <x v="56"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="73"/>
+    <x v="56"/>
+    <x v="57"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="74"/>
+    <x v="57"/>
+    <x v="58"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="75"/>
+    <x v="58"/>
+    <x v="49"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="76"/>
+    <x v="59"/>
+    <x v="59"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="77"/>
+    <x v="60"/>
+    <x v="60"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="37"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="insightface"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="37"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="78"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="5"/>
+    <x v="79"/>
+    <x v="61"/>
+    <x v="61"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="80"/>
+    <x v="62"/>
+    <x v="62"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="81"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="82"/>
+    <x v="62"/>
+    <x v="62"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="83"/>
+    <x v="63"/>
+    <x v="63"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="84"/>
+    <x v="64"/>
+    <x v="64"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="5"/>
+    <x v="85"/>
+    <x v="65"/>
+    <x v="65"/>
+    <s v="YOLOv8"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="66"/>
+    <x v="66"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DertResNet50"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:G27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="87">
+        <item x="10"/>
+        <item x="57"/>
+        <item x="22"/>
+        <item x="36"/>
+        <item x="5"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="85"/>
+        <item x="19"/>
+        <item x="71"/>
+        <item x="52"/>
+        <item x="8"/>
+        <item x="42"/>
+        <item x="31"/>
+        <item x="68"/>
+        <item x="65"/>
+        <item x="28"/>
+        <item x="32"/>
+        <item x="20"/>
+        <item x="53"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="43"/>
+        <item x="59"/>
+        <item x="55"/>
+        <item x="77"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="60"/>
+        <item x="24"/>
+        <item x="66"/>
+        <item x="72"/>
+        <item x="39"/>
+        <item x="80"/>
+        <item x="61"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="12"/>
+        <item x="26"/>
+        <item x="45"/>
+        <item x="73"/>
+        <item x="58"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="48"/>
+        <item x="82"/>
+        <item x="75"/>
+        <item x="83"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="79"/>
+        <item x="25"/>
+        <item x="81"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="78"/>
+        <item x="38"/>
+        <item x="18"/>
+        <item x="69"/>
+        <item x="62"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="51"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="64"/>
+        <item x="30"/>
+        <item x="67"/>
+        <item x="70"/>
+        <item x="76"/>
+        <item x="46"/>
+        <item x="84"/>
+        <item x="56"/>
+        <item x="49"/>
+        <item x="41"/>
+        <item x="35"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="68">
+        <item x="16"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="65"/>
+        <item x="37"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="38"/>
+        <item x="14"/>
+        <item x="25"/>
+        <item x="32"/>
+        <item x="48"/>
+        <item x="22"/>
+        <item x="60"/>
+        <item x="33"/>
+        <item x="62"/>
+        <item x="55"/>
+        <item x="34"/>
+        <item x="26"/>
+        <item x="54"/>
+        <item x="39"/>
+        <item x="57"/>
+        <item x="45"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="35"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="58"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="46"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="2"/>
+        <item x="61"/>
+        <item x="9"/>
+        <item x="50"/>
+        <item x="56"/>
+        <item x="24"/>
+        <item x="66"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="21"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="59"/>
+        <item x="36"/>
+        <item x="64"/>
+        <item x="42"/>
+        <item x="40"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="68">
+        <item x="17"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="36"/>
+        <item x="52"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="38"/>
+        <item x="42"/>
+        <item x="65"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="33"/>
+        <item x="39"/>
+        <item x="9"/>
+        <item x="43"/>
+        <item x="26"/>
+        <item x="60"/>
+        <item x="29"/>
+        <item x="45"/>
+        <item x="22"/>
+        <item x="63"/>
+        <item x="34"/>
+        <item x="10"/>
+        <item x="56"/>
+        <item x="19"/>
+        <item x="58"/>
+        <item x="30"/>
+        <item x="46"/>
+        <item x="61"/>
+        <item x="49"/>
+        <item x="20"/>
+        <item x="66"/>
+        <item x="50"/>
+        <item x="37"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="57"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="21"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="59"/>
+        <item x="35"/>
+        <item x="64"/>
+        <item x="44"/>
+        <item x="40"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of DertResNet50" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of YOLOv8" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of insightface" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="3" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="3" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1013,9 +2754,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A3:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="E6:G27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B6:D27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:F133"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1167,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>9.6000000000000002E-2</v>
+        <v>0.129</v>
       </c>
       <c r="D8">
         <v>0.14099999999999999</v>
@@ -1187,7 +3530,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.45500000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1207,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.109</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D10">
         <v>0.14099999999999999</v>
@@ -1216,7 +3559,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1227,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.17499999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D11">
         <v>0.248</v>
@@ -1287,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0.308</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D14">
         <v>0.83299999999999996</v>
@@ -1307,7 +3650,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>0.36399999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1327,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0.66700000000000004</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D16">
         <v>0.83299999999999996</v>
@@ -1336,7 +3679,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1347,7 +3690,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.47099999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D17">
         <v>0.90900000000000003</v>
@@ -1407,16 +3750,16 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>0.126</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
-        <v>0.14699999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E20">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,16 +3770,16 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>0.59099999999999997</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="D21">
-        <v>0.93300000000000005</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,16 +3790,16 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0.13800000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D22">
-        <v>0.14899999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E22">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,16 +3810,16 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0.224</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D23">
-        <v>0.25700000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E23">
         <v>0.13900000000000001</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1647,10 +3990,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>0.26700000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D32">
-        <v>0.45500000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="E32">
         <v>0.3</v>
@@ -1667,16 +4010,16 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>0.44400000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D33">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1687,16 +4030,16 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E34">
         <v>0.3</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1707,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>0.42099999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D35">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E35">
         <v>0.46200000000000002</v>
@@ -1767,10 +4110,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.20599999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="D38">
-        <v>0.224</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E38">
         <v>0.107</v>
@@ -1787,10 +4130,10 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>0.59099999999999997</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="D39">
-        <v>0.76500000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E39">
         <v>0.75</v>
@@ -1807,10 +4150,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>0.24099999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D40">
-        <v>0.24099999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E40">
         <v>0.111</v>
@@ -1827,10 +4170,10 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>0.34200000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D41">
-        <v>0.36599999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E41">
         <v>0.19400000000000001</v>
@@ -2007,13 +4350,13 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>0.16200000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D50">
-        <v>0.318</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>0.158</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
@@ -2027,16 +4370,16 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>0.25</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D51">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E51">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2047,16 +4390,16 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>0.316</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D52">
-        <v>0.36799999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="E52">
-        <v>0.105</v>
+        <v>0.158</v>
       </c>
       <c r="F52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2067,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>0.27900000000000003</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D53">
-        <v>0.48299999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E53">
-        <v>0.182</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
@@ -2127,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>0.25700000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="D56">
         <v>0.27300000000000002</v>
@@ -2136,7 +4479,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2147,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>0.40899999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2167,7 +4510,7 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>0.40899999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D58">
         <v>0.27300000000000002</v>
@@ -2187,7 +4530,7 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>0.40899999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D59">
         <v>0.42899999999999999</v>
@@ -2196,7 +4539,7 @@
         <v>0.16</v>
       </c>
       <c r="F59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2367,10 +4710,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>7.0999999999999994E-2</v>
+        <v>0.184</v>
       </c>
       <c r="D68">
-        <v>0.26100000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E68">
         <v>9.5000000000000001E-2</v>
@@ -2387,16 +4730,16 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>0.125</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2407,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>0.14299999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D70">
-        <v>0.28599999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E70">
         <v>9.5000000000000001E-2</v>
@@ -2427,10 +4770,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>0.13300000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="D71">
-        <v>0.41399999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E71">
         <v>0.17399999999999999</v>
@@ -2607,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>0.3</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D80">
         <v>0.44400000000000001</v>
@@ -2627,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>0.35299999999999998</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2647,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>0.66700000000000004</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="D82">
         <v>0.44400000000000001</v>
@@ -2667,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>0.46200000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D83">
         <v>0.61499999999999999</v>
@@ -2847,16 +5190,16 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>0.14099999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D92">
-        <v>0.14000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E92">
-        <v>7.0999999999999994E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F92" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2867,13 +5210,13 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>0.38500000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
@@ -2887,13 +5230,13 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>0.182</v>
+        <v>0.75</v>
       </c>
       <c r="D94">
-        <v>0.14499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E94">
-        <v>7.2999999999999995E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F94" t="s">
         <v>2</v>
@@ -2907,16 +5250,16 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>0.247</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D95">
-        <v>0.246</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="E95">
-        <v>0.13300000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="F95" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2927,13 +5270,13 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
         <v>2</v>
@@ -2947,13 +5290,13 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>4.4999999999999998E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D97">
-        <v>0.06</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E97">
-        <v>2.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
@@ -2967,13 +5310,13 @@
         <v>7</v>
       </c>
       <c r="C98">
-        <v>0.35</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D98">
-        <v>0.75</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="E98">
-        <v>8.3000000000000004E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
@@ -2987,13 +5330,13 @@
         <v>8</v>
       </c>
       <c r="C99">
-        <v>0.46700000000000003</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
@@ -3007,16 +5350,16 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>0.58299999999999996</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="D100">
-        <v>0.75</v>
+        <v>0.438</v>
       </c>
       <c r="E100">
-        <v>8.3000000000000004E-2</v>
+        <v>0.312</v>
       </c>
       <c r="F100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3027,13 +5370,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>0.51900000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D101">
-        <v>0.85699999999999998</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E101">
-        <v>0.154</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
@@ -3047,13 +5390,13 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D102">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
         <v>2</v>
@@ -3067,13 +5410,13 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>0.17399999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D103">
-        <v>0.42699999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E103">
-        <v>8.9999999999999993E-3</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
@@ -3087,13 +5430,13 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>0.34499999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D104">
-        <v>0.41199999999999998</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E104">
-        <v>0.29399999999999998</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
@@ -3107,16 +5450,16 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>0.435</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D105">
-        <v>0.875</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E105">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -3127,13 +5470,13 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0.438</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.312</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F106" t="s">
         <v>2</v>
@@ -3147,13 +5490,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>0.51300000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="D107">
-        <v>0.58299999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="E107">
-        <v>0.45500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
@@ -3167,13 +5510,13 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
         <v>2</v>
@@ -3187,13 +5530,13 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>0.32900000000000001</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D109">
-        <v>0.35399999999999998</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="E109">
-        <v>0.21099999999999999</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
@@ -3207,16 +5550,16 @@
         <v>7</v>
       </c>
       <c r="C110">
-        <v>0.54500000000000004</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3227,16 +5570,16 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>0.54500000000000004</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3253,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>2</v>
@@ -3267,16 +5610,16 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>0.70599999999999996</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3287,13 +5630,13 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
         <v>2</v>
@@ -3307,16 +5650,16 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>0.59199999999999997</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>0.80200000000000005</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.44900000000000001</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3327,13 +5670,13 @@
         <v>7</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="F116" t="s">
         <v>2</v>
@@ -3347,7 +5690,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3356,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3367,13 +5710,13 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="F118" t="s">
         <v>2</v>
@@ -3387,13 +5730,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F119" t="s">
         <v>2</v>
@@ -3407,13 +5750,13 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F120" t="s">
         <v>2</v>
@@ -3427,13 +5770,13 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>0.7</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D121">
-        <v>0.9</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E121">
-        <v>0.6</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
@@ -3447,13 +5790,13 @@
         <v>7</v>
       </c>
       <c r="C122">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>0.16700000000000001</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
         <v>2</v>
@@ -3467,16 +5810,16 @@
         <v>8</v>
       </c>
       <c r="C123">
-        <v>0.27600000000000002</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>0.55600000000000005</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3487,13 +5830,13 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>0.308</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>0.192</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>2</v>
@@ -3507,13 +5850,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>0.29099999999999998</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>0.28599999999999998</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
         <v>2</v>
@@ -3527,13 +5870,13 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
         <v>2</v>
@@ -3547,16 +5890,16 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>2.5999999999999999E-2</v>
+        <v>0.9</v>
       </c>
       <c r="D127">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3677,2046 +6020,6 @@
       </c>
       <c r="F133" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>34</v>
-      </c>
-      <c r="B135" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>34</v>
-      </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138">
-        <v>3</v>
-      </c>
-      <c r="F138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>34</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>35</v>
-      </c>
-      <c r="B141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>35</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>36</v>
-      </c>
-      <c r="B148" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-      <c r="D150">
-        <v>8</v>
-      </c>
-      <c r="E150">
-        <v>8</v>
-      </c>
-      <c r="F150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152">
-        <v>0.217</v>
-      </c>
-      <c r="D152">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E152">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D153">
-        <v>0.375</v>
-      </c>
-      <c r="E153">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="F153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154">
-        <v>0.4</v>
-      </c>
-      <c r="D154">
-        <v>0.24</v>
-      </c>
-      <c r="E154">
-        <v>0.08</v>
-      </c>
-      <c r="F154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D155">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E155">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F155" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156">
-        <v>25</v>
-      </c>
-      <c r="D156">
-        <v>25</v>
-      </c>
-      <c r="E156">
-        <v>25</v>
-      </c>
-      <c r="F156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D157">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E157">
-        <v>2.7E-2</v>
-      </c>
-      <c r="F157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>38</v>
-      </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158">
-        <v>0.31</v>
-      </c>
-      <c r="D158">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E158">
-        <v>0.15</v>
-      </c>
-      <c r="F158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>38</v>
-      </c>
-      <c r="B159" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159">
-        <v>0.5</v>
-      </c>
-      <c r="D159">
-        <v>0.875</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>38</v>
-      </c>
-      <c r="B160" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160">
-        <v>0.45</v>
-      </c>
-      <c r="D160">
-        <v>0.35</v>
-      </c>
-      <c r="E160">
-        <v>0.15</v>
-      </c>
-      <c r="F160" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>38</v>
-      </c>
-      <c r="B161" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="D161">
-        <v>0.5</v>
-      </c>
-      <c r="E161">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>38</v>
-      </c>
-      <c r="B162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162">
-        <v>20</v>
-      </c>
-      <c r="D162">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>20</v>
-      </c>
-      <c r="F162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D163">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="E163">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F163" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>39</v>
-      </c>
-      <c r="B165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>39</v>
-      </c>
-      <c r="B166" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>39</v>
-      </c>
-      <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>39</v>
-      </c>
-      <c r="B168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-      <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>39</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B170" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>40</v>
-      </c>
-      <c r="B172" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>40</v>
-      </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>40</v>
-      </c>
-      <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>40</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175">
-        <v>0.9</v>
-      </c>
-      <c r="D175">
-        <v>0.9</v>
-      </c>
-      <c r="E175">
-        <v>0.6</v>
-      </c>
-      <c r="F175" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>41</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>41</v>
-      </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>41</v>
-      </c>
-      <c r="B178" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>41</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>41</v>
-      </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180">
-        <v>6</v>
-      </c>
-      <c r="D180">
-        <v>6</v>
-      </c>
-      <c r="E180">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>41</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>42</v>
-      </c>
-      <c r="B182" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D182">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E182">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F182" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>42</v>
-      </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D183">
-        <v>0.6</v>
-      </c>
-      <c r="E183">
-        <v>0.5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>42</v>
-      </c>
-      <c r="B184" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D184">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E184">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F184" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>42</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="D185">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E185">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F185" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>42</v>
-      </c>
-      <c r="B186" t="s">
-        <v>11</v>
-      </c>
-      <c r="C186">
-        <v>107</v>
-      </c>
-      <c r="D186">
-        <v>107</v>
-      </c>
-      <c r="E186">
-        <v>107</v>
-      </c>
-      <c r="F186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>42</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D187">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E187">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>43</v>
-      </c>
-      <c r="B188" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188">
-        <v>0.152</v>
-      </c>
-      <c r="D188">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="E188">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>43</v>
-      </c>
-      <c r="B189" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189">
-        <v>0.318</v>
-      </c>
-      <c r="D189">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>43</v>
-      </c>
-      <c r="B190" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D190">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E190">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>43</v>
-      </c>
-      <c r="B191" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D191">
-        <v>0.375</v>
-      </c>
-      <c r="E191">
-        <v>0.121</v>
-      </c>
-      <c r="F191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>43</v>
-      </c>
-      <c r="B192" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192">
-        <v>31</v>
-      </c>
-      <c r="D192">
-        <v>31</v>
-      </c>
-      <c r="E192">
-        <v>31</v>
-      </c>
-      <c r="F192" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>43</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D193">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E193">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F193" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>44</v>
-      </c>
-      <c r="B194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194">
-        <v>0.04</v>
-      </c>
-      <c r="D194">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E194">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F194" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>44</v>
-      </c>
-      <c r="B195" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D195">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="E195">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F195" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>44</v>
-      </c>
-      <c r="B196" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D196">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E196">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F196" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>44</v>
-      </c>
-      <c r="B197" t="s">
-        <v>10</v>
-      </c>
-      <c r="C197">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D197">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E197">
-        <v>0.05</v>
-      </c>
-      <c r="F197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>44</v>
-      </c>
-      <c r="B198" t="s">
-        <v>11</v>
-      </c>
-      <c r="C198">
-        <v>153</v>
-      </c>
-      <c r="D198">
-        <v>153</v>
-      </c>
-      <c r="E198">
-        <v>153</v>
-      </c>
-      <c r="F198" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>44</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D199">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E199">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F199" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>45</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D200">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E200">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F200" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>45</v>
-      </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D201">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D202">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E202">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F202" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>45</v>
-      </c>
-      <c r="B203" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D203">
-        <v>0.437</v>
-      </c>
-      <c r="E203">
-        <v>0.5</v>
-      </c>
-      <c r="F203" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>45</v>
-      </c>
-      <c r="B204" t="s">
-        <v>11</v>
-      </c>
-      <c r="C204">
-        <v>21</v>
-      </c>
-      <c r="D204">
-        <v>21</v>
-      </c>
-      <c r="E204">
-        <v>21</v>
-      </c>
-      <c r="F204" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>45</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D205">
-        <v>0.108</v>
-      </c>
-      <c r="E205">
-        <v>0.122</v>
-      </c>
-      <c r="F205" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>46</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206">
-        <v>0.192</v>
-      </c>
-      <c r="D206">
-        <v>0.2</v>
-      </c>
-      <c r="E206">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F206" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>46</v>
-      </c>
-      <c r="B207" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D207">
-        <v>0.75</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>46</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D208">
-        <v>0.214</v>
-      </c>
-      <c r="E208">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F208" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" t="s">
-        <v>10</v>
-      </c>
-      <c r="C209">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D209">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E209">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>46</v>
-      </c>
-      <c r="B210" t="s">
-        <v>11</v>
-      </c>
-      <c r="C210">
-        <v>14</v>
-      </c>
-      <c r="D210">
-        <v>14</v>
-      </c>
-      <c r="E210">
-        <v>14</v>
-      </c>
-      <c r="F210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>46</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211">
-        <v>0.06</v>
-      </c>
-      <c r="D211">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E211">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F211" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>47</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212">
-        <v>0.5</v>
-      </c>
-      <c r="F212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>47</v>
-      </c>
-      <c r="B213" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>47</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
-      </c>
-      <c r="E214">
-        <v>0.5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>47</v>
-      </c>
-      <c r="B215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
-      </c>
-      <c r="E215">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="F215" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>47</v>
-      </c>
-      <c r="B216" t="s">
-        <v>11</v>
-      </c>
-      <c r="C216">
-        <v>2</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216">
-        <v>2</v>
-      </c>
-      <c r="F216" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>47</v>
-      </c>
-      <c r="B217" t="s">
-        <v>12</v>
-      </c>
-      <c r="C217">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D217">
-        <v>0.125</v>
-      </c>
-      <c r="E217">
-        <v>0.151</v>
-      </c>
-      <c r="F217" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>48</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218">
-        <v>0.154</v>
-      </c>
-      <c r="D218">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>48</v>
-      </c>
-      <c r="B219" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219">
-        <v>0.24</v>
-      </c>
-      <c r="D219">
-        <v>0.2</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>48</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220">
-        <v>0.3</v>
-      </c>
-      <c r="D220">
-        <v>0.05</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>48</v>
-      </c>
-      <c r="B221" t="s">
-        <v>10</v>
-      </c>
-      <c r="C221">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D221">
-        <v>0.08</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>48</v>
-      </c>
-      <c r="B222" t="s">
-        <v>11</v>
-      </c>
-      <c r="C222">
-        <v>20</v>
-      </c>
-      <c r="D222">
-        <v>20</v>
-      </c>
-      <c r="E222">
-        <v>20</v>
-      </c>
-      <c r="F222" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>48</v>
-      </c>
-      <c r="B223" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D223">
-        <v>1E-3</v>
-      </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-      <c r="F223" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>49</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>49</v>
-      </c>
-      <c r="B225" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>49</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-      <c r="F226" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>49</v>
-      </c>
-      <c r="B227" t="s">
-        <v>10</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>49</v>
-      </c>
-      <c r="B228" t="s">
-        <v>11</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>49</v>
-      </c>
-      <c r="B229" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>50</v>
-      </c>
-      <c r="B230" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230">
-        <v>0.219</v>
-      </c>
-      <c r="D230">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E230">
-        <v>0.111</v>
-      </c>
-      <c r="F230" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>50</v>
-      </c>
-      <c r="B231" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D231">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>50</v>
-      </c>
-      <c r="B232" t="s">
-        <v>9</v>
-      </c>
-      <c r="C232">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D232">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E232">
-        <v>0.111</v>
-      </c>
-      <c r="F232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>50</v>
-      </c>
-      <c r="B233" t="s">
-        <v>10</v>
-      </c>
-      <c r="C233">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D233">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E233">
-        <v>0.2</v>
-      </c>
-      <c r="F233" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>50</v>
-      </c>
-      <c r="B234" t="s">
-        <v>11</v>
-      </c>
-      <c r="C234">
-        <v>18</v>
-      </c>
-      <c r="D234">
-        <v>18</v>
-      </c>
-      <c r="E234">
-        <v>18</v>
-      </c>
-      <c r="F234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>50</v>
-      </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="D235">
-        <v>0.107</v>
-      </c>
-      <c r="E235">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F235" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
